--- a/biology/Zoologie/Arachnocephalus/Arachnocephalus.xlsx
+++ b/biology/Zoologie/Arachnocephalus/Arachnocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arachnocephalus est un genre d'insectes orthoptères de la famille des Mogoplistidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique, en Asie et en Océanie. Ce genre ne comprend qu'une seule espèce en Europe, Arachnocephalus vestitus, le Grillon des cistes.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File :
 Arachnocephalus angustifrons Chopard, 1955
 Arachnocephalus australicus Chopard, 1925
 Arachnocephalus bidentatus Chopard, 1951
@@ -597,7 +613,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Costa, 1855 : Fauna del Regno di Napoli. Napoli.
 Sur les autres projets Wikimedia :
